--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE118B-01A4-4742-B7C1-9101292F5ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF95A0-7821-4275-BA18-0F36C1E59188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="2490" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15690" yWindow="3570" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,169 @@
   </si>
   <si>
     <t>DAY27</t>
+  </si>
+  <si>
+    <t>DAY28</t>
+  </si>
+  <si>
+    <t>DAY29</t>
+  </si>
+  <si>
+    <t>DAY30</t>
+  </si>
+  <si>
+    <t>DAY31</t>
+  </si>
+  <si>
+    <t>DAY32</t>
+  </si>
+  <si>
+    <t>DAY33</t>
+  </si>
+  <si>
+    <t>DAY34</t>
+  </si>
+  <si>
+    <t>DAY35</t>
+  </si>
+  <si>
+    <t>DAY36</t>
+  </si>
+  <si>
+    <t>DAY37</t>
+  </si>
+  <si>
+    <t>DAY38</t>
+  </si>
+  <si>
+    <t>DAY39</t>
+  </si>
+  <si>
+    <t>DAY40</t>
+  </si>
+  <si>
+    <t>DAY41</t>
+  </si>
+  <si>
+    <t>DAY42</t>
+  </si>
+  <si>
+    <t>DAY43</t>
+  </si>
+  <si>
+    <t>DAY44</t>
+  </si>
+  <si>
+    <t>DAY45</t>
+  </si>
+  <si>
+    <t>DAY46</t>
+  </si>
+  <si>
+    <t>DAY47</t>
+  </si>
+  <si>
+    <t>DAY48</t>
+  </si>
+  <si>
+    <t>DAY49</t>
+  </si>
+  <si>
+    <t>DAY50</t>
+  </si>
+  <si>
+    <t>DAY51</t>
+  </si>
+  <si>
+    <t>DAY52</t>
+  </si>
+  <si>
+    <t>DAY53</t>
+  </si>
+  <si>
+    <t>DAY54</t>
+  </si>
+  <si>
+    <t>DAY55</t>
+  </si>
+  <si>
+    <t>DAY56</t>
+  </si>
+  <si>
+    <t>DAY57</t>
+  </si>
+  <si>
+    <t>DAY58</t>
+  </si>
+  <si>
+    <t>DAY59</t>
+  </si>
+  <si>
+    <t>DAY60</t>
+  </si>
+  <si>
+    <t>DAY61</t>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习轮1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习轮2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习轮3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习轮4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:Java多态、反射、泛型、注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:集合框架</t>
+  </si>
+  <si>
+    <t>INTERVIEW:设计模式创建型、结构型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:设计模式行为型+相关问题
+英语：词汇1+语法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY62</t>
+  </si>
+  <si>
+    <t>DAY63</t>
+  </si>
+  <si>
+    <t>DAY64</t>
+  </si>
+  <si>
+    <t>DAY65</t>
+  </si>
+  <si>
+    <t>INTERVIEW:Java其他
+英语：词汇2+语法2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -156,11 +319,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,763 +609,1387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>44201</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44202</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44203</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44204</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44205</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44206</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44207</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44208</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44209</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44210</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44215</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44216</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44217</v>
+        <v>44359</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44218</v>
+        <v>44360</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44219</v>
+        <v>44361</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44220</v>
+        <v>44362</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2</v>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44221</v>
+        <v>44363</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44222</v>
+        <v>44364</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44223</v>
+        <v>44365</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44224</v>
+        <v>44366</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44225</v>
+        <v>44367</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44226</v>
+        <v>44368</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>8</v>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44227</v>
+        <v>44369</v>
       </c>
       <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF95A0-7821-4275-BA18-0F36C1E59188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18EAE7-AA52-486B-B9EF-0E9F3FC2C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15690" yWindow="3570" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="78">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,29 +246,35 @@
     <t>INTERVIEW:集合框架</t>
   </si>
   <si>
-    <t>INTERVIEW:设计模式创建型、结构型</t>
+    <t>DAY62</t>
+  </si>
+  <si>
+    <t>DAY63</t>
+  </si>
+  <si>
+    <t>DAY64</t>
+  </si>
+  <si>
+    <t>DAY65</t>
+  </si>
+  <si>
+    <t>INTERVIEW:设计模式创建型
+英语：词汇1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERVIEW:设计模式行为型+相关问题
-英语：词汇1+语法1</t>
+    <t>INTERVIEW:设计模式结构型
+英语：词汇2+语法1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAY62</t>
-  </si>
-  <si>
-    <t>DAY63</t>
-  </si>
-  <si>
-    <t>DAY64</t>
-  </si>
-  <si>
-    <t>DAY65</t>
-  </si>
-  <si>
-    <t>INTERVIEW:Java其他
-英语：词汇2+语法2</t>
+    <t>INTERVIEW:设计模式行为型
+英语：词汇3+语法2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:Java基础相关
+事：职测数字推理专项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +618,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,15 +678,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44346</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>70</v>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -697,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -727,12 +733,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44349</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1916,7 +1925,7 @@
         <v>44405</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>60</v>
@@ -1936,10 +1945,10 @@
         <v>44406</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>59</v>
@@ -1956,10 +1965,10 @@
         <v>44407</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>60</v>
@@ -1976,13 +1985,13 @@
         <v>44408</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>58</v>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18EAE7-AA52-486B-B9EF-0E9F3FC2C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B88C340-23FA-49DA-98CA-0FA32E8504C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15690" yWindow="3570" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15795" yWindow="6015" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="79">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,8 +273,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERVIEW:Java基础相关
-事：职测数字推理专项</t>
+    <t>INTERVIEW:Java基础其他1-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:Java基础其他17-32
+数学：不明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +622,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,7 +737,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44349</v>
       </c>
@@ -752,12 +756,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44350</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B88C340-23FA-49DA-98CA-0FA32E8504C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785B8A5B-0CF4-470F-862B-0A37B3D704CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15795" yWindow="6015" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="2520" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,7 +278,11 @@
   </si>
   <si>
     <t>INTERVIEW:Java基础其他17-32
-数学：不明</t>
+数学：基础-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +626,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,6 +788,9 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -802,6 +809,9 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
@@ -819,6 +829,9 @@
       </c>
       <c r="B11" t="s">
         <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785B8A5B-0CF4-470F-862B-0A37B3D704CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B5A8F-78E5-4965-8E5B-0354DD866335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12540" yWindow="2520" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="81">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,15 +247,6 @@
   </si>
   <si>
     <t>DAY62</t>
-  </si>
-  <si>
-    <t>DAY63</t>
-  </si>
-  <si>
-    <t>DAY64</t>
-  </si>
-  <si>
-    <t>DAY65</t>
   </si>
   <si>
     <t>INTERVIEW:设计模式创建型
@@ -283,6 +274,22 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,12 +320,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,6 +356,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -626,10 +643,10 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" bestFit="1" customWidth="1"/>
@@ -676,7 +693,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -694,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -711,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -729,8 +746,8 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
+      <c r="C6" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -749,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -767,8 +784,8 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -781,7 +798,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44351</v>
       </c>
@@ -789,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -802,7 +819,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44352</v>
       </c>
@@ -810,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -823,7 +840,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44353</v>
       </c>
@@ -831,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -844,21 +861,21 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44354</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -867,16 +884,16 @@
         <v>44355</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -885,16 +902,16 @@
         <v>44356</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -903,16 +920,16 @@
         <v>44357</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -921,16 +938,16 @@
         <v>44358</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -939,16 +956,16 @@
         <v>44359</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -957,16 +974,16 @@
         <v>44360</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -975,16 +992,16 @@
         <v>44361</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
@@ -995,16 +1012,16 @@
         <v>44362</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>1</v>
@@ -1015,16 +1032,16 @@
         <v>44363</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>2</v>
@@ -1035,16 +1052,16 @@
         <v>44364</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>3</v>
@@ -1055,16 +1072,16 @@
         <v>44365</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
@@ -1075,16 +1092,16 @@
         <v>44366</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>5</v>
@@ -1095,16 +1112,16 @@
         <v>44367</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>6</v>
@@ -1115,16 +1132,16 @@
         <v>44368</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>7</v>
@@ -1135,16 +1152,16 @@
         <v>44369</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
@@ -1155,16 +1172,16 @@
         <v>44370</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
@@ -1175,17 +1192,17 @@
         <v>44371</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -1200,17 +1217,17 @@
         <v>44372</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -1225,17 +1242,17 @@
         <v>44373</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>12</v>
@@ -1250,17 +1267,17 @@
         <v>44374</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>13</v>
@@ -1275,17 +1292,17 @@
         <v>44375</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>14</v>
@@ -1300,17 +1317,17 @@
         <v>44376</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>15</v>
@@ -1325,17 +1342,17 @@
         <v>44377</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>16</v>
@@ -1350,17 +1367,17 @@
         <v>44378</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>17</v>
@@ -1375,17 +1392,17 @@
         <v>44379</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>18</v>
@@ -1400,17 +1417,17 @@
         <v>44380</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -1425,17 +1442,17 @@
         <v>44381</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>20</v>
@@ -1450,17 +1467,17 @@
         <v>44382</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1475,17 +1492,17 @@
         <v>44383</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>22</v>
@@ -1500,17 +1517,17 @@
         <v>44384</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>23</v>
@@ -1525,17 +1542,17 @@
         <v>44385</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>24</v>
@@ -1550,17 +1567,17 @@
         <v>44386</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>25</v>
@@ -1575,17 +1592,17 @@
         <v>44387</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1600,17 +1617,17 @@
         <v>44388</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1625,16 +1642,16 @@
         <v>44389</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -1645,16 +1662,16 @@
         <v>44390</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>29</v>
@@ -1665,16 +1682,16 @@
         <v>44391</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
@@ -1685,16 +1702,16 @@
         <v>44392</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>31</v>
@@ -1705,16 +1722,16 @@
         <v>44393</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>32</v>
@@ -1725,16 +1742,16 @@
         <v>44394</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>33</v>
@@ -1745,16 +1762,16 @@
         <v>44395</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1765,16 +1782,16 @@
         <v>44396</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>
@@ -1785,16 +1802,16 @@
         <v>44397</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>36</v>
@@ -1805,16 +1822,16 @@
         <v>44398</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>37</v>
@@ -1825,16 +1842,16 @@
         <v>44399</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>38</v>
@@ -1845,16 +1862,16 @@
         <v>44400</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>39</v>
@@ -1865,16 +1882,16 @@
         <v>44401</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>40</v>
@@ -1885,16 +1902,16 @@
         <v>44402</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>41</v>
@@ -1905,16 +1922,16 @@
         <v>44403</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>42</v>
@@ -1925,16 +1942,16 @@
         <v>44404</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>43</v>
@@ -1945,16 +1962,16 @@
         <v>44405</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>44</v>
@@ -1965,16 +1982,16 @@
         <v>44406</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>45</v>
@@ -1985,16 +2002,16 @@
         <v>44407</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>46</v>
@@ -2005,16 +2022,16 @@
         <v>44408</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>47</v>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B5A8F-78E5-4965-8E5B-0354DD866335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B6FD14-7AE0-4E6D-AAFB-27297BAB7C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="2520" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="2955" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="83">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,14 +239,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DAY62</t>
+  </si>
+  <si>
+    <t>DAY8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:Java并发一
+英语：词汇4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:Java并发二
+英语：词汇5+语法3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INTERVIEW:Java多态、反射、泛型、注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INTERVIEW:集合框架</t>
-  </si>
-  <si>
-    <t>DAY62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INTERVIEW:设计模式创建型
@@ -274,22 +301,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,7 +340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +376,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -643,7 +662,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -682,8 +701,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>68</v>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -693,8 +712,8 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>69</v>
+      <c r="C3" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -710,8 +729,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>71</v>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -727,8 +746,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>72</v>
+      <c r="C5" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -746,8 +765,8 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>73</v>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -765,8 +784,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>74</v>
+      <c r="C7" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -784,8 +803,8 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -806,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -827,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -848,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -861,30 +880,36 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44354</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44355</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -2022,7 +2047,7 @@
         <v>44408</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>60</v>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B6FD14-7AE0-4E6D-AAFB-27297BAB7C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542C9B87-5444-497F-9B5F-45B29D5E708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="2955" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="2820" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="76">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,27 +190,6 @@
     <t>DAY54</t>
   </si>
   <si>
-    <t>DAY55</t>
-  </si>
-  <si>
-    <t>DAY56</t>
-  </si>
-  <si>
-    <t>DAY57</t>
-  </si>
-  <si>
-    <t>DAY58</t>
-  </si>
-  <si>
-    <t>DAY59</t>
-  </si>
-  <si>
-    <t>DAY60</t>
-  </si>
-  <si>
-    <t>DAY61</t>
-  </si>
-  <si>
     <t>当前日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,22 +218,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAY62</t>
-  </si>
-  <si>
     <t>DAY8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DAY7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -301,6 +269,19 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:Java并发三
+数学：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +309,15 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -363,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,6 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -659,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -673,25 +664,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -702,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -713,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -730,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -747,14 +738,12 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -766,14 +755,12 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -785,14 +772,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -804,17 +789,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -825,17 +806,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -846,17 +823,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -867,17 +840,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
@@ -885,20 +854,16 @@
         <v>44354</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -909,20 +874,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44356</v>
       </c>
@@ -935,12 +896,10 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44357</v>
       </c>
@@ -953,12 +912,10 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44358</v>
       </c>
@@ -971,12 +928,10 @@
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44359</v>
       </c>
@@ -989,12 +944,10 @@
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44360</v>
       </c>
@@ -1007,12 +960,10 @@
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44361</v>
       </c>
@@ -1025,14 +976,12 @@
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44362</v>
       </c>
@@ -1045,14 +994,12 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44363</v>
       </c>
@@ -1065,31 +1012,26 @@
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44364</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="H22" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1097,19 +1039,18 @@
         <v>44365</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="7">
         <v>12</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1117,19 +1058,18 @@
         <v>44366</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1137,19 +1077,20 @@
         <v>44367</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1157,19 +1098,20 @@
         <v>44368</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1177,18 +1119,19 @@
         <v>44369</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1197,19 +1140,22 @@
         <v>44370</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
+      </c>
+      <c r="H28" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1217,22 +1163,24 @@
         <v>44371</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>6</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1242,22 +1190,24 @@
         <v>44372</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1267,22 +1217,24 @@
         <v>44373</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1292,22 +1244,24 @@
         <v>44374</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1317,22 +1271,24 @@
         <v>44375</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1342,22 +1298,24 @@
         <v>44376</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1367,22 +1325,24 @@
         <v>44377</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1392,22 +1352,22 @@
         <v>44378</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1417,20 +1377,20 @@
         <v>44379</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1442,20 +1402,20 @@
         <v>44380</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1467,20 +1427,20 @@
         <v>44381</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1492,20 +1452,20 @@
         <v>44382</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1517,20 +1477,20 @@
         <v>44383</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1542,20 +1502,20 @@
         <v>44384</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1567,20 +1527,20 @@
         <v>44385</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1592,20 +1552,20 @@
         <v>44386</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1617,20 +1577,20 @@
         <v>44387</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1642,20 +1602,20 @@
         <v>44388</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1667,19 +1627,19 @@
         <v>44389</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1687,19 +1647,19 @@
         <v>44390</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1707,19 +1667,19 @@
         <v>44391</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1727,19 +1687,19 @@
         <v>44392</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1747,19 +1707,19 @@
         <v>44393</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,19 +1727,19 @@
         <v>44394</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1787,19 +1747,19 @@
         <v>44395</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,19 +1767,19 @@
         <v>44396</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1827,19 +1787,19 @@
         <v>44397</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,19 +1807,19 @@
         <v>44398</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1867,19 +1827,19 @@
         <v>44399</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1887,19 +1847,19 @@
         <v>44400</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1907,19 +1867,19 @@
         <v>44401</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1927,19 +1887,19 @@
         <v>44402</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1947,19 +1907,19 @@
         <v>44403</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1967,19 +1927,19 @@
         <v>44404</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1987,19 +1947,19 @@
         <v>44405</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2007,19 +1967,19 @@
         <v>44406</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2027,19 +1987,19 @@
         <v>44407</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2047,20 +2007,40 @@
         <v>44408</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542C9B87-5444-497F-9B5F-45B29D5E708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CC422-AC6E-419B-A895-5E155788CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="2820" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="4350" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>INTERVIEW:Java并发三
-数学：</t>
+数学：-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,13 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -363,13 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,7 +644,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -692,7 +683,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -703,7 +694,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -720,7 +711,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -737,7 +728,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -771,7 +762,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -788,7 +779,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -856,7 +847,7 @@
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -873,7 +864,7 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1030,7 +1021,7 @@
       <c r="D22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>13</v>
       </c>
     </row>
@@ -1049,7 +1040,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1068,7 +1059,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1089,7 +1080,7 @@
         <v>73</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1110,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>9</v>
       </c>
     </row>
@@ -1131,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1154,7 +1145,7 @@
       <c r="G28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1178,7 +1169,7 @@
       <c r="G29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>6</v>
       </c>
       <c r="I29" s="2"/>
@@ -1205,7 +1196,7 @@
       <c r="G30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>5</v>
       </c>
       <c r="I30" s="2"/>
@@ -1232,7 +1223,7 @@
       <c r="G31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>4</v>
       </c>
       <c r="I31" s="2"/>
@@ -1259,7 +1250,7 @@
       <c r="G32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>3</v>
       </c>
       <c r="I32" s="2"/>
@@ -1286,7 +1277,7 @@
       <c r="G33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>2</v>
       </c>
       <c r="I33" s="2"/>
@@ -1313,7 +1304,7 @@
       <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>1</v>
       </c>
       <c r="I34" s="2"/>
@@ -1340,7 +1331,7 @@
       <c r="G35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1367,7 +1358,7 @@
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CC422-AC6E-419B-A895-5E155788CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10595465-91E4-4A5A-8641-4827BC5AB5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11700" yWindow="4350" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="79">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAY2</t>
-  </si>
-  <si>
-    <t>DAY3</t>
-  </si>
-  <si>
-    <t>DAY4</t>
-  </si>
-  <si>
-    <t>DAY5</t>
-  </si>
-  <si>
-    <t>DAY6</t>
-  </si>
-  <si>
-    <t>DAY7</t>
-  </si>
-  <si>
-    <t>DAY8</t>
-  </si>
-  <si>
-    <t>DAY9</t>
-  </si>
-  <si>
     <t>DAY10</t>
   </si>
   <si>
@@ -176,18 +152,6 @@
   </si>
   <si>
     <t>DAY50</t>
-  </si>
-  <si>
-    <t>DAY51</t>
-  </si>
-  <si>
-    <t>DAY52</t>
-  </si>
-  <si>
-    <t>DAY53</t>
-  </si>
-  <si>
-    <t>DAY54</t>
   </si>
   <si>
     <t>当前日期</t>
@@ -231,11 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERVIEW:Java并发二
-英语：词汇5+语法3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTERVIEW:Java多态、反射、泛型、注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,16 +231,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAY10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>INTERVIEW:Java并发二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INTERVIEW:Java并发三
-数学：-</t>
+英语：词汇5+语法3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,18 +344,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -347,18 +364,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -644,7 +658,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -655,47 +669,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44344</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>65</v>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44345</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -708,14 +722,14 @@
       <c r="A4" s="1">
         <v>44346</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>67</v>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -725,14 +739,14 @@
       <c r="A5" s="1">
         <v>44347</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>68</v>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -742,14 +756,14 @@
       <c r="A6" s="1">
         <v>44348</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>69</v>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -759,14 +773,14 @@
       <c r="A7" s="1">
         <v>44349</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -776,14 +790,14 @@
       <c r="A8" s="1">
         <v>44350</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>71</v>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -793,14 +807,14 @@
       <c r="A9" s="1">
         <v>44351</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -810,14 +824,14 @@
       <c r="A10" s="1">
         <v>44352</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -827,14 +841,14 @@
       <c r="A11" s="1">
         <v>44353</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -844,31 +858,31 @@
       <c r="A12" s="1">
         <v>44354</v>
       </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>63</v>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44355</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>64</v>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -878,14 +892,15 @@
       <c r="A14" s="1">
         <v>44356</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -894,14 +909,15 @@
       <c r="A15" s="1">
         <v>44357</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -910,14 +926,15 @@
       <c r="A16" s="1">
         <v>44358</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -926,14 +943,15 @@
       <c r="A17" s="1">
         <v>44359</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -942,14 +960,15 @@
       <c r="A18" s="1">
         <v>44360</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -958,14 +977,15 @@
       <c r="A19" s="1">
         <v>44361</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
@@ -976,132 +996,138 @@
       <c r="A20" s="1">
         <v>44362</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44363</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44364</v>
       </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44365</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44366</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44367</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44368</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="5">
+      <c r="H26" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1109,20 +1135,21 @@
       <c r="A27" s="1">
         <v>44369</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>8</v>
       </c>
     </row>
@@ -1130,22 +1157,23 @@
       <c r="A28" s="1">
         <v>44370</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <v>7</v>
       </c>
     </row>
@@ -1153,23 +1181,23 @@
       <c r="A29" s="1">
         <v>44371</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
+        <v>62</v>
+      </c>
+      <c r="H29" s="4">
         <v>6</v>
       </c>
       <c r="I29" s="2"/>
@@ -1180,23 +1208,23 @@
       <c r="A30" s="1">
         <v>44372</v>
       </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5">
+        <v>63</v>
+      </c>
+      <c r="H30" s="4">
         <v>5</v>
       </c>
       <c r="I30" s="2"/>
@@ -1207,23 +1235,23 @@
       <c r="A31" s="1">
         <v>44373</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="5">
+        <v>64</v>
+      </c>
+      <c r="H31" s="4">
         <v>4</v>
       </c>
       <c r="I31" s="2"/>
@@ -1234,23 +1262,23 @@
       <c r="A32" s="1">
         <v>44374</v>
       </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="5">
+        <v>65</v>
+      </c>
+      <c r="H32" s="4">
         <v>3</v>
       </c>
       <c r="I32" s="2"/>
@@ -1261,23 +1289,23 @@
       <c r="A33" s="1">
         <v>44375</v>
       </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5">
+        <v>66</v>
+      </c>
+      <c r="H33" s="4">
         <v>2</v>
       </c>
       <c r="I33" s="2"/>
@@ -1288,23 +1316,23 @@
       <c r="A34" s="1">
         <v>44376</v>
       </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="5">
+        <v>50</v>
+      </c>
+      <c r="H34" s="4">
         <v>1</v>
       </c>
       <c r="I34" s="2"/>
@@ -1315,23 +1343,23 @@
       <c r="A35" s="1">
         <v>44377</v>
       </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="5">
+        <v>49</v>
+      </c>
+      <c r="H35" s="4">
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1342,23 +1370,23 @@
       <c r="A36" s="1">
         <v>44378</v>
       </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1367,21 +1395,21 @@
       <c r="A37" s="1">
         <v>44379</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1392,21 +1420,21 @@
       <c r="A38" s="1">
         <v>44380</v>
       </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1417,21 +1445,21 @@
       <c r="A39" s="1">
         <v>44381</v>
       </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1442,21 +1470,21 @@
       <c r="A40" s="1">
         <v>44382</v>
       </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1467,21 +1495,21 @@
       <c r="A41" s="1">
         <v>44383</v>
       </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1492,21 +1520,21 @@
       <c r="A42" s="1">
         <v>44384</v>
       </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1517,21 +1545,21 @@
       <c r="A43" s="1">
         <v>44385</v>
       </c>
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1542,21 +1570,21 @@
       <c r="A44" s="1">
         <v>44386</v>
       </c>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1567,21 +1595,21 @@
       <c r="A45" s="1">
         <v>44387</v>
       </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1592,21 +1620,21 @@
       <c r="A46" s="1">
         <v>44388</v>
       </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1617,411 +1645,431 @@
       <c r="A47" s="1">
         <v>44389</v>
       </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44390</v>
       </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44391</v>
       </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
+      <c r="B49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44392</v>
       </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44393</v>
       </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
+      <c r="B51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44394</v>
       </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44395</v>
       </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44396</v>
       </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44397</v>
       </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44398</v>
       </c>
-      <c r="B56" t="s">
-        <v>43</v>
-      </c>
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44399</v>
       </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44400</v>
       </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
+      <c r="B58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44401</v>
       </c>
-      <c r="B59" t="s">
-        <v>46</v>
-      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44402</v>
       </c>
-      <c r="B60" t="s">
-        <v>47</v>
-      </c>
+      <c r="B60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44403</v>
       </c>
-      <c r="B61" t="s">
-        <v>48</v>
-      </c>
+      <c r="B61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44404</v>
       </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
+      <c r="B62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44405</v>
       </c>
-      <c r="B63" t="s">
-        <v>50</v>
-      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44406</v>
       </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
+      <c r="B64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44407</v>
       </c>
-      <c r="B65" t="s">
-        <v>52</v>
-      </c>
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44408</v>
       </c>
-      <c r="B66" t="s">
-        <v>53</v>
-      </c>
+      <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10595465-91E4-4A5A-8641-4827BC5AB5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F73948-656A-4676-9846-CC55A2582698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="4350" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="3780" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="81">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>DAY20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">英语：词汇6+语法4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW:Android基础一
+事：数字推理2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +667,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1147,9 @@
       <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
@@ -1153,14 +1164,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44370</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
       </c>

--- a/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
+++ b/_posts/文件存储/啊哒啦稀阿饼花生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\tamagua.github.io\_posts\文件存储\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F73948-656A-4676-9846-CC55A2582698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED06E093-C638-41DC-AF23-82A262948844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="3780" windowWidth="22635" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18705" yWindow="2445" windowWidth="17100" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="88">
   <si>
     <t>DAY1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,18 +142,6 @@
     <t>DAY46</t>
   </si>
   <si>
-    <t>DAY47</t>
-  </si>
-  <si>
-    <t>DAY48</t>
-  </si>
-  <si>
-    <t>DAY49</t>
-  </si>
-  <si>
-    <t>DAY50</t>
-  </si>
-  <si>
     <t>当前日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +159,6 @@
   </si>
   <si>
     <t>复习轮2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习轮3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,24 +280,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAY18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">英语：词汇6+语法4 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERVIEW:Android基础一
-事：数字推理2</t>
+    <t>INTERVIEW:Android基础1
+事：-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY8</t>
+  </si>
+  <si>
+    <t>DAY9</t>
+  </si>
+  <si>
+    <t>DAY8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY7</t>
+  </si>
+  <si>
+    <t>DAY12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY3</t>
+  </si>
+  <si>
+    <t>DAY4</t>
+  </si>
+  <si>
+    <t>DAY5</t>
+  </si>
+  <si>
+    <t>DAY6</t>
+  </si>
+  <si>
+    <t>INTERVIEW：Android基础2
+英语：词汇7+语法5+长难句1（试用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW：Android基础3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW：Android进阶1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEW：Android进阶2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -676,30 +702,27 @@
     <col min="3" max="3" width="37.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44344</v>
       </c>
@@ -707,993 +730,963 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44346</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44347</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44348</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44349</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44350</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44351</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44352</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44353</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44354</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44355</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44356</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44357</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44358</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44359</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44360</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44361</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44362</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44363</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44364</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44365</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44366</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44367</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44368</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H26" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44369</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="H27" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44370</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44371</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="H29" s="4">
         <v>6</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44372</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="H30" s="4">
         <v>5</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44373</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4">
         <v>4</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44374</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="H32" s="4">
         <v>3</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" ht="28.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44375</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H33" s="4">
         <v>2</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44376</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44377</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44378</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44379</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44380</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44381</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44382</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44383</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44384</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44385</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44386</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44387</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44388</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44389</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44390</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1701,20 +1694,20 @@
         <v>44391</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1722,20 +1715,20 @@
         <v>44392</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1743,20 +1736,20 @@
         <v>44393</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1764,20 +1757,20 @@
         <v>44394</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1785,20 +1778,20 @@
         <v>44395</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1806,20 +1799,20 @@
         <v>44396</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1827,20 +1820,20 @@
         <v>44397</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1848,20 +1841,20 @@
         <v>44398</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1869,20 +1862,20 @@
         <v>44399</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1890,20 +1883,20 @@
         <v>44400</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1911,20 +1904,20 @@
         <v>44401</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1932,20 +1925,20 @@
         <v>44402</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1953,20 +1946,20 @@
         <v>44403</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1974,20 +1967,20 @@
         <v>44404</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1995,20 +1988,20 @@
         <v>44405</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2016,20 +2009,20 @@
         <v>44406</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2037,20 +2030,20 @@
         <v>44407</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2058,41 +2051,35 @@
         <v>44408</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
